--- a/Tree_Data.xlsx
+++ b/Tree_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaden's Laptop\Documents\GitHub\KadenFranklin.github.io\actually-a-map\actually-a-map\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaden's Laptop\Documents\GitHub\KadenFranklin.github.io\DataEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BFE3D9-6144-420E-BAD7-DE4F3DDC15A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C63286-360D-4605-B487-A3C4993234DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="12615" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1150" sheetId="5" r:id="rId1"/>
@@ -9379,8 +9379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8DCFBA-F8C8-274A-8D01-82C097DB8B7E}">
   <dimension ref="A1:Y1210"/>
   <sheetViews>
-    <sheetView topLeftCell="A1146" workbookViewId="0">
-      <selection activeCell="F1156" sqref="F1156"/>
+    <sheetView tabSelected="1" topLeftCell="H377" workbookViewId="0">
+      <selection activeCell="E1168" sqref="E1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -63475,8 +63475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE2B84-8E9D-F84B-8618-FE9B5FD20814}">
   <dimension ref="A1:S597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="F588" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -85129,12 +85129,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85308,15 +85305,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC55DCC-97CD-4BAD-83F9-FA5B42E7BE91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607DE4E2-3073-4E8F-A9E6-82BF06BA9558}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -85340,10 +85341,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607DE4E2-3073-4E8F-A9E6-82BF06BA9558}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC55DCC-97CD-4BAD-83F9-FA5B42E7BE91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>